--- a/excel/penawaran.xlsx
+++ b/excel/penawaran.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{134CCC29-D007-594C-9642-95785B0DA706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4015D105-E923-2A48-B331-CF170DD39B1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14060" xr2:uid="{E79D2868-0710-1B49-9B9C-F674B39C4F51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
   <si>
     <t>GCT_COMP_NO</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>17124</t>
+  </si>
+  <si>
+    <t>Dec 2018 - May 2020</t>
   </si>
 </sst>
 </file>
@@ -622,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E53E93-8B72-6949-A77F-9AB43B2BE4B1}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AC6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1129,7 +1132,7 @@
         <v>50</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
